--- a/output/2024/mcgo_novel_recaps_2024.xlsx
+++ b/output/2024/mcgo_novel_recaps_2024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -110,9 +110,6 @@
     <t xml:space="preserve">2227-21370</t>
   </si>
   <si>
-    <t xml:space="preserve">2227-14426</t>
-  </si>
-  <si>
     <t xml:space="preserve">OLD VILLAGE</t>
   </si>
   <si>
@@ -131,7 +128,7 @@
     <t xml:space="preserve">2287-13871</t>
   </si>
   <si>
-    <t xml:space="preserve">2287-27414</t>
+    <t xml:space="preserve">2047-27414</t>
   </si>
   <si>
     <t xml:space="preserve">HOCK SLOUGH</t>
@@ -150,12 +147,6 @@
   </si>
   <si>
     <t xml:space="preserve">2287-13559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
   </si>
   <si>
     <t xml:space="preserve">2047-27045</t>
@@ -781,16 +772,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45494</v>
+        <v>45496</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>2227</v>
+        <v>2047</v>
       </c>
       <c r="D7" t="n">
-        <v>14426</v>
+        <v>29307</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -799,25 +790,27 @@
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
         <v>21</v>
       </c>
-      <c r="K7"/>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
       <c r="L7" t="s">
         <v>23</v>
       </c>
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -831,7 +824,7 @@
         <v>2047</v>
       </c>
       <c r="D8" t="n">
-        <v>29307</v>
+        <v>27475</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -840,20 +833,18 @@
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
         <v>21</v>
       </c>
-      <c r="K8" t="s">
-        <v>22</v>
-      </c>
+      <c r="K8"/>
       <c r="L8" t="s">
         <v>23</v>
       </c>
@@ -871,10 +862,10 @@
         <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>2047</v>
+        <v>2287</v>
       </c>
       <c r="D9" t="n">
-        <v>27475</v>
+        <v>13875</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -889,7 +880,7 @@
         <v>27</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s">
         <v>21</v>
@@ -915,7 +906,7 @@
         <v>2287</v>
       </c>
       <c r="D10" t="n">
-        <v>13875</v>
+        <v>13884</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -924,13 +915,13 @@
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
         <v>21</v>
@@ -956,7 +947,7 @@
         <v>2287</v>
       </c>
       <c r="D11" t="n">
-        <v>13884</v>
+        <v>13871</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -965,13 +956,13 @@
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
         <v>27</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J11" t="s">
         <v>21</v>
@@ -994,10 +985,10 @@
         <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>2287</v>
+        <v>2047</v>
       </c>
       <c r="D12" t="n">
-        <v>13871</v>
+        <v>27414</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
@@ -1012,7 +1003,7 @@
         <v>27</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J12" t="s">
         <v>21</v>
@@ -1029,16 +1020,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45496</v>
+        <v>45497</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>2287</v>
+        <v>2047</v>
       </c>
       <c r="D13" t="n">
-        <v>27414</v>
+        <v>29396</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
@@ -1047,25 +1038,27 @@
         <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J13" t="s">
         <v>21</v>
       </c>
-      <c r="K13"/>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
       <c r="L13" t="s">
         <v>23</v>
       </c>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -1079,7 +1072,7 @@
         <v>2047</v>
       </c>
       <c r="D14" t="n">
-        <v>29396</v>
+        <v>27311</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -1094,7 +1087,7 @@
         <v>19</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J14" t="s">
         <v>21</v>
@@ -1113,7 +1106,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -1122,7 +1115,7 @@
         <v>2047</v>
       </c>
       <c r="D15" t="n">
-        <v>27311</v>
+        <v>27041</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
@@ -1134,24 +1127,22 @@
         <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J15" t="s">
         <v>21</v>
       </c>
-      <c r="K15" t="s">
-        <v>22</v>
-      </c>
+      <c r="K15"/>
       <c r="L15" t="s">
         <v>23</v>
       </c>
       <c r="M15"/>
       <c r="N15"/>
       <c r="O15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
@@ -1162,10 +1153,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>2047</v>
+        <v>2287</v>
       </c>
       <c r="D16" t="n">
-        <v>27041</v>
+        <v>13559</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
@@ -1177,15 +1168,17 @@
         <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J16" t="s">
         <v>21</v>
       </c>
-      <c r="K16"/>
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
       <c r="L16" t="s">
         <v>23</v>
       </c>
@@ -1203,10 +1196,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>2287</v>
+        <v>2047</v>
       </c>
       <c r="D17" t="n">
-        <v>13559</v>
+        <v>27045</v>
       </c>
       <c r="E17" t="s">
         <v>16</v>
@@ -1218,17 +1211,15 @@
         <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J17" t="s">
         <v>21</v>
       </c>
-      <c r="K17" t="s">
-        <v>22</v>
-      </c>
+      <c r="K17"/>
       <c r="L17" t="s">
         <v>23</v>
       </c>
@@ -1240,7 +1231,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45498</v>
+        <v>45499</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -1249,7 +1240,7 @@
         <v>2047</v>
       </c>
       <c r="D18" t="n">
-        <v>27045</v>
+        <v>29300</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
@@ -1258,39 +1249,43 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s">
         <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
-        <v>43</v>
       </c>
       <c r="J18" t="s">
         <v>21</v>
       </c>
       <c r="K18"/>
       <c r="L18" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18"/>
-      <c r="N18"/>
+        <v>47</v>
+      </c>
+      <c r="M18" t="n">
+        <v>61.30573</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-165.7451</v>
+      </c>
       <c r="O18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45499</v>
+        <v>45500</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>2047</v>
+        <v>2287</v>
       </c>
       <c r="D19" t="n">
-        <v>29300</v>
+        <v>13965</v>
       </c>
       <c r="E19" t="s">
         <v>16</v>
@@ -1299,7 +1294,7 @@
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H19" t="s">
         <v>27</v>
@@ -1312,21 +1307,17 @@
       </c>
       <c r="K19"/>
       <c r="L19" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19" t="s">
         <v>50</v>
-      </c>
-      <c r="M19" t="n">
-        <v>61.30573</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-165.7451</v>
-      </c>
-      <c r="O19" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45500</v>
+        <v>45501</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -1335,7 +1326,7 @@
         <v>2287</v>
       </c>
       <c r="D20" t="n">
-        <v>13965</v>
+        <v>14246</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
@@ -1344,72 +1335,31 @@
         <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20" t="n">
+        <v>61.19712</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-165.06281</v>
+      </c>
+      <c r="O20" t="s">
         <v>52</v>
-      </c>
-      <c r="J20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20"/>
-      <c r="L20" t="s">
-        <v>50</v>
-      </c>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>45501</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2287</v>
-      </c>
-      <c r="D21" t="n">
-        <v>14246</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" t="s">
-        <v>50</v>
-      </c>
-      <c r="M21" t="n">
-        <v>61.19712</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-165.06281</v>
-      </c>
-      <c r="O21" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
